--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9787562398544446</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8222687809611389</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9251803593939654</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9571771888757565</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9413815854021527</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1420571219118499</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H2" t="n">
-        <v>1.188489480089878</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I2" t="n">
-        <v>0.576672183636143</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1919435443189161</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3843077524928159</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4409925836805133</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3769046589150232</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01243537179252</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3929502705452383</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P2" t="n">
-        <v>133.9030520705674</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.1299806870004</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_1</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9786552949609952</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8214317485170346</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9242759941790482</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9527234314999293</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9393274980695414</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1427321408791545</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H3" t="n">
-        <v>1.194086719897783</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5836425761569646</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2119065022333909</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3977745391951777</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4343296337903512</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3777990747462923</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012494461486247</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3938827635101406</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P3" t="n">
-        <v>133.8935710918986</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.1204997083317</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_2</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9784865069956917</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8205948111339006</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9233992387606438</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9485561756970209</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9373876224549097</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1438608267803363</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H4" t="n">
-        <v>1.199683324032542</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5904001662436151</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2305852817878925</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4104925433017254</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4282672221926926</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3792898980731444</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N4" t="n">
-        <v>1.012593264197644</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3954370542724466</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8778178548837</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q4" t="n">
-        <v>213.1047464713168</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_3</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9782727988104536</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8197752660038884</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9225631692502525</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9446817475320021</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9355717239946638</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1452898943990595</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H5" t="n">
-        <v>1.205163626090593</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5968441698010192</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.247951527830104</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4223977417073791</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4228097687800264</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3811691152219176</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01271836167193</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3973962735857588</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P5" t="n">
-        <v>133.8580485214557</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q5" t="n">
-        <v>213.0849771378887</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_4</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9780311763060519</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8189849521119442</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.921774934557992</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9410974778794162</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9338831153995639</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1469056251985631</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H6" t="n">
-        <v>1.210448458725084</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6029194866232034</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2640172041098791</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4334684159737335</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4178167824295984</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3832826961898529</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N6" t="n">
-        <v>1.012859799235482</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3995998340712149</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P6" t="n">
-        <v>133.8359298076582</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.0628584240912</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_5</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9777745587253223</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8182317004771631</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9210389466361845</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9377953779568002</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9323217129359346</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G7" t="n">
-        <v>0.148621628142517</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H7" t="n">
-        <v>1.21548545587527</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6085921115992221</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2788181185338113</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4437051150665167</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4132557435686202</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3855147573602299</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013010014404689</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4019269187066185</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P7" t="n">
-        <v>133.8127032224855</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q7" t="n">
-        <v>213.0396318389185</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_6</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9775123336944803</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8175203185109906</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9203561834112216</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9347636927144679</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9308840244444099</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1503751281311924</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H8" t="n">
-        <v>1.220242470358678</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6138545073639786</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2924069604476288</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4531307339058037</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4090861906129657</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3877823205500638</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013163511983719</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4042910167559465</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P8" t="n">
-        <v>133.7892445052198</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.0161731216529</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9772513240103168</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8168533401366058</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9197260836667476</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9319881478229832</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9295648512640018</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.152120501091033</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224702557819343</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I9" t="n">
-        <v>0.618710999491062</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3048477112975005</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4617793553942813</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4052876301499844</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3900262825644356</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013316298140302</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4066305088789118</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P9" t="n">
-        <v>133.7661646037531</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.9930932201861</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9769964636014656</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8162317759620851</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9191473475491998</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9294528051288691</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9283579810222237</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1538247538185449</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H10" t="n">
-        <v>1.228858960316403</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6231716065983954</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.316211810243724</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4696917084210598</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4018358866128662</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3922049895380538</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013465484721093</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4089019679189421</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P10" t="n">
-        <v>133.7438825735128</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.9708111899458</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_9</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9767510793728883</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8156552160749728</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.918617461165769</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9271415117792546</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9272563885455728</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1554656392849318</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H11" t="n">
-        <v>1.232714418936337</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6272557045082079</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3265716587879635</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4769138506739526</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3986921903034829</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M11" t="n">
-        <v>0.394291312718061</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013609124269529</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4110771101960066</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P11" t="n">
-        <v>133.7226610820178</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.9495896984508</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9765174267066583</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8151226573775814</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9181336977647085</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9250380987415201</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9262530108891127</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1570280757398837</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H12" t="n">
-        <v>1.236275641398001</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6309843096524339</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3359997309539405</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4834920874737897</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3958433160367535</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3962676819271081</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013745896561956</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4131376175339311</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P12" t="n">
-        <v>133.7026613265053</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.9295899429384</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9762967969304791</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8146323705811226</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9176927983381648</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E13" t="n">
-        <v>0.923126381272142</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9253403531639839</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1585034280691006</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H13" t="n">
-        <v>1.239554191463483</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6343825408255525</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3445685711859425</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4894755560057475</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3932561446568914</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3981248900396716</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013875045699232</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4150738908407973</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P13" t="n">
-        <v>133.6839581154049</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.910886731838</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.976090024635221</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8141822803712508</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9172920432903776</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9213913718846637</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9245116783475414</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1598861153595907</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H14" t="n">
-        <v>1.242563946769371</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6374713593047469</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.352345357494832</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4949084248139411</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3909108944086359</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3998576188590018</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013996083140358</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4168803855132094</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P14" t="n">
-        <v>133.6665869923716</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.8935156088046</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9758971861546832</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8137701499710719</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9169277935588915</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9198178963084391</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9237597310565924</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1611756271668863</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H15" t="n">
-        <v>1.245319864653054</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6402788131543448</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3593981051092642</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4998382608622247</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3887917238689764</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4014668444179249</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014108964202137</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O15" t="n">
-        <v>0.418558119135732</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P15" t="n">
-        <v>133.6505213131522</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.8774499295853</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9757183341334972</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8133935098603177</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9165978165184366</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9183923034958967</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9230783912608446</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1623716114560952</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H16" t="n">
-        <v>1.247838458807935</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6428221103277558</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3657880017557282</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5043051876357331</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.386866309244388</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4029536095583401</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014213658068197</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4201081789462028</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P16" t="n">
-        <v>133.6357353456796</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.8626639621126</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9755530528082276</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8130499315406939</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9162985548840599</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9171022776861344</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9224615189950297</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1634768484392236</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H17" t="n">
-        <v>1.250135968613292</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6451286685894195</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3715702500408826</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5083494593151511</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3851298586982608</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4043227033437816</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014310408112257</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4215355578885054</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P17" t="n">
-        <v>133.6221677968622</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.8490964132953</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9754008521356706</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8127370403255112</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9160280618811018</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9159348679878802</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9219034523273296</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1644946150374315</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H18" t="n">
-        <v>1.25222827360995</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6472134926999161</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3768028993993072</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5120081960496116</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3835568829577836</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4055793572624617</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014399501188876</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O18" t="n">
-        <v>0.422845710166136</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P18" t="n">
-        <v>133.6097548892946</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.8366835057276</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9752610434096245</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8124524676414161</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9157831369847228</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9148796167861962</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9213987551891868</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1654295166322617</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H19" t="n">
-        <v>1.254131212458831</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6491012506960476</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3815328237195564</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0.515317037207802</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3821355391394177</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4067302750377229</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014481340443147</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4240456248938183</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P19" t="n">
-        <v>133.5984201125086</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.8253487289417</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9751329411443292</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8121939395120903</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9155617112004103</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9139259661913893</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9209426022889731</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1662861370701478</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H20" t="n">
-        <v>1.255859991250046</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6508078893475909</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3858073463490492</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5183076178483201</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3808538995705086</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4077819724683128</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014556327135027</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4251420952613422</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P20" t="n">
-        <v>133.5880905144625</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.8150191308955</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9750158652854697</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8119593404992299</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9153619058128883</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E21" t="n">
-        <v>0.913064547796835</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9205306867966964</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1670690238774264</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H21" t="n">
-        <v>1.257428755929272</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6523478888476049</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3896684590469653</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.521008173947285</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3796971846587182</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4087407783393118</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014624859345091</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4261417194832713</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P21" t="n">
-        <v>133.5786964706517</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.8056250870848</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9749089916175302</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8117466136508057</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9151813299927384</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9122867409052885</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9201586662989374</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1677836885870462</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H22" t="n">
-        <v>1.258851261344201</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6537396765075605</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3931548021346702</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5234471747690547</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3786527215268071</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4096140727404836</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014687419540958</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4270521918350696</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5701593942819</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.7970880107149</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9748116538947671</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8115539366521185</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9150184053413752</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9115849490554262</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9198229866793671</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1684345863873617</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H23" t="n">
-        <v>1.260139693321619</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6549954178304099</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3963004250281765</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5256479214292933</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3777093955406803</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4104078293446187</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014744397720136</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4278797403011455</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P23" t="n">
-        <v>133.5624156318285</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.7893442482615</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9747230715503042</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.811379515309292</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9148713371051158</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9109516499629711</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9195200510789847</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G24" t="n">
-        <v>0.169026936932669</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H24" t="n">
-        <v>1.261306049644236</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6561289458754558</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3991390446616964</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5276339952685761</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3768563375932931</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4111288568474232</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014796250799822</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4286314634374771</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P24" t="n">
-        <v>133.5553943732524</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.7823229896854</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_23</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9746426374295794</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8112216886710755</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9147389422148866</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9103805539701996</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9192470139584199</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1695648002683215</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H25" t="n">
-        <v>1.262361437100715</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6571493791444789</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.401698853000314</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5294240519064305</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3760889816992868</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4117824671696471</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014843334187563</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4293128993042779</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P25" t="n">
-        <v>133.5490402455053</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.7759688619383</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9745695503662805</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8110789960487794</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9146192268851778</v>
+        <v>0.9999034524691026</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9098654227663838</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9190005414792836</v>
+        <v>0.9999226298236344</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1700535337971361</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H26" t="n">
-        <v>1.263315623323048</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6580720847340633</v>
+        <v>7.508624229984995e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.404007811857844</v>
+        <v>7.469808810244658e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5310399482959536</v>
+        <v>3.754312118727402e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3753984941208302</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4123754767164703</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014886116858763</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4299311544952084</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P26" t="n">
-        <v>133.5432839736298</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.7702125900629</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
   </sheetData>
